--- a/Figures/MembraneSDB_table.xlsx
+++ b/Figures/MembraneSDB_table.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="20480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
   <si>
     <t>MONOTOPIC MEMBRANE PROTEINS</t>
   </si>
@@ -241,22 +241,20 @@
   </si>
   <si>
     <t>H+/Cl- Exchange Transporters</t>
+  </si>
+  <si>
+    <t>Table 1: Distribution of the proteins and sectors by structural group and functional subgroups in the membrane sector database</t>
+  </si>
+  <si>
+    <t>The membrane sector database contained 250 unique proteins and 1205 sectors.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -279,6 +277,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -433,76 +442,96 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="35">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -518,6 +547,8 @@
     <cellStyle name="Lien hypertexte" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -533,6 +564,8 @@
     <cellStyle name="Lien hypertexte visité" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -862,14 +895,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C9:I50"/>
+  <dimension ref="C9:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J54" sqref="B8:J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="2" max="2" width="3.6640625" customWidth="1"/>
     <col min="3" max="3" width="70.33203125" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
     <col min="5" max="5" width="13.83203125" customWidth="1"/>
@@ -877,794 +911,842 @@
     <col min="7" max="7" width="61.1640625" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="43.1640625" customWidth="1"/>
+    <col min="10" max="10" width="4.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="3:9" ht="85" thickBot="1">
-      <c r="D9" s="4" t="s">
+    <row r="9" spans="3:9" ht="86" thickBot="1">
+      <c r="C9" s="1"/>
+      <c r="D9" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="3:9" ht="16" thickBot="1">
-      <c r="C10" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="8">
+    <row r="10" spans="3:9" ht="20" customHeight="1" thickBot="1">
+      <c r="C10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="4">
         <f>SUM(D11:D35,H11:H35)</f>
         <v>154</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="5">
         <f>SUM(E11:E35,I11:I35)</f>
         <v>653</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" spans="3:9">
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>15</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="9">
         <v>40</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="5" t="s">
+      <c r="F11" s="10"/>
+      <c r="G11" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="10">
-        <v>2</v>
-      </c>
-      <c r="I11" s="14">
+      <c r="H11" s="9">
+        <v>2</v>
+      </c>
+      <c r="I11" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="3:9">
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>10</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="9">
         <v>47</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="5" t="s">
+      <c r="F12" s="10"/>
+      <c r="G12" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="10">
-        <v>2</v>
-      </c>
-      <c r="I12" s="14">
+      <c r="H12" s="9">
+        <v>2</v>
+      </c>
+      <c r="I12" s="11">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="3:9">
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>10</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="9">
         <v>55</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="5" t="s">
+      <c r="F13" s="10"/>
+      <c r="G13" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="10">
-        <v>2</v>
-      </c>
-      <c r="I13" s="14">
+      <c r="H13" s="9">
+        <v>2</v>
+      </c>
+      <c r="I13" s="11">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="3:9">
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>10</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="9">
         <v>65</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="5" t="s">
+      <c r="F14" s="10"/>
+      <c r="G14" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="10">
-        <v>1</v>
-      </c>
-      <c r="I14" s="14">
+      <c r="H14" s="9">
+        <v>1</v>
+      </c>
+      <c r="I14" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="3:9">
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <v>9</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="9">
         <v>62</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="5" t="s">
+      <c r="F15" s="10"/>
+      <c r="G15" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="H15" s="10">
-        <v>1</v>
-      </c>
-      <c r="I15" s="14">
+      <c r="H15" s="9">
+        <v>1</v>
+      </c>
+      <c r="I15" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="3:9">
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="9">
         <v>7</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="9">
         <v>14</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="5" t="s">
+      <c r="F16" s="10"/>
+      <c r="G16" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H16" s="10">
-        <v>1</v>
-      </c>
-      <c r="I16" s="14">
+      <c r="H16" s="9">
+        <v>1</v>
+      </c>
+      <c r="I16" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="3:9">
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="9">
         <v>7</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="9">
         <v>45</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="5" t="s">
+      <c r="F17" s="10"/>
+      <c r="G17" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="10">
-        <v>1</v>
-      </c>
-      <c r="I17" s="14">
+      <c r="H17" s="9">
+        <v>1</v>
+      </c>
+      <c r="I17" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="3:9">
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="9">
         <v>6</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="9">
         <v>32</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="5" t="s">
+      <c r="F18" s="10"/>
+      <c r="G18" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H18" s="10">
-        <v>1</v>
-      </c>
-      <c r="I18" s="14">
+      <c r="H18" s="9">
+        <v>1</v>
+      </c>
+      <c r="I18" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="3:9">
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="9">
         <v>6</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="9">
         <v>20</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="5" t="s">
+      <c r="F19" s="10"/>
+      <c r="G19" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H19" s="10">
-        <v>1</v>
-      </c>
-      <c r="I19" s="14">
+      <c r="H19" s="9">
+        <v>1</v>
+      </c>
+      <c r="I19" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="3:9">
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="9">
         <v>5</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="9">
         <v>6</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="5" t="s">
+      <c r="F20" s="10"/>
+      <c r="G20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="10">
-        <v>1</v>
-      </c>
-      <c r="I20" s="14">
+      <c r="H20" s="9">
+        <v>1</v>
+      </c>
+      <c r="I20" s="11">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="3:9">
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="9">
         <v>4</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="9">
         <v>5</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="5" t="s">
+      <c r="F21" s="10"/>
+      <c r="G21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="10">
-        <v>1</v>
-      </c>
-      <c r="I21" s="14">
+      <c r="H21" s="9">
+        <v>1</v>
+      </c>
+      <c r="I21" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="3:9">
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="9">
         <v>4</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="9">
         <v>22</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="5" t="s">
+      <c r="F22" s="10"/>
+      <c r="G22" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="10">
-        <v>1</v>
-      </c>
-      <c r="I22" s="14">
+      <c r="H22" s="9">
+        <v>1</v>
+      </c>
+      <c r="I22" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="3:9">
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="9">
         <v>4</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="9">
         <v>12</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="5" t="s">
+      <c r="F23" s="10"/>
+      <c r="G23" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="10">
-        <v>1</v>
-      </c>
-      <c r="I23" s="14">
+      <c r="H23" s="9">
+        <v>1</v>
+      </c>
+      <c r="I23" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="3:9">
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="9">
         <v>3</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="9">
         <v>15</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="5" t="s">
+      <c r="F24" s="10"/>
+      <c r="G24" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="H24" s="10">
-        <v>1</v>
-      </c>
-      <c r="I24" s="14">
+      <c r="H24" s="9">
+        <v>1</v>
+      </c>
+      <c r="I24" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="3:9">
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="9">
         <v>3</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="9">
         <v>8</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="5" t="s">
+      <c r="F25" s="10"/>
+      <c r="G25" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H25" s="10">
-        <v>1</v>
-      </c>
-      <c r="I25" s="14">
+      <c r="H25" s="9">
+        <v>1</v>
+      </c>
+      <c r="I25" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="3:9">
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="9">
         <v>3</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="9">
         <v>8</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="5" t="s">
+      <c r="F26" s="10"/>
+      <c r="G26" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H26" s="10">
-        <v>1</v>
-      </c>
-      <c r="I26" s="14">
+      <c r="H26" s="9">
+        <v>1</v>
+      </c>
+      <c r="I26" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="3:9">
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="9">
         <v>3</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="9">
         <v>18</v>
       </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="5" t="s">
+      <c r="F27" s="10"/>
+      <c r="G27" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H27" s="10">
-        <v>1</v>
-      </c>
-      <c r="I27" s="14">
+      <c r="H27" s="9">
+        <v>1</v>
+      </c>
+      <c r="I27" s="11">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="3:9">
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="9">
         <v>3</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="9">
         <v>13</v>
       </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="5" t="s">
+      <c r="F28" s="10"/>
+      <c r="G28" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H28" s="10">
-        <v>1</v>
-      </c>
-      <c r="I28" s="14">
+      <c r="H28" s="9">
+        <v>1</v>
+      </c>
+      <c r="I28" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="3:9">
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="10">
-        <v>2</v>
-      </c>
-      <c r="E29" s="10">
+      <c r="D29" s="9">
+        <v>2</v>
+      </c>
+      <c r="E29" s="9">
         <v>17</v>
       </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="5" t="s">
+      <c r="F29" s="10"/>
+      <c r="G29" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H29" s="10">
-        <v>1</v>
-      </c>
-      <c r="I29" s="14">
+      <c r="H29" s="9">
+        <v>1</v>
+      </c>
+      <c r="I29" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="3:9">
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="10">
-        <v>2</v>
-      </c>
-      <c r="E30" s="10">
+      <c r="D30" s="9">
+        <v>2</v>
+      </c>
+      <c r="E30" s="9">
         <v>13</v>
       </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="5" t="s">
+      <c r="F30" s="10"/>
+      <c r="G30" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H30" s="10">
-        <v>1</v>
-      </c>
-      <c r="I30" s="14">
+      <c r="H30" s="9">
+        <v>1</v>
+      </c>
+      <c r="I30" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="3:9">
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="10">
-        <v>2</v>
-      </c>
-      <c r="E31" s="10">
+      <c r="D31" s="9">
+        <v>2</v>
+      </c>
+      <c r="E31" s="9">
         <v>6</v>
       </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="5" t="s">
+      <c r="F31" s="10"/>
+      <c r="G31" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H31" s="10">
-        <v>1</v>
-      </c>
-      <c r="I31" s="14">
+      <c r="H31" s="9">
+        <v>1</v>
+      </c>
+      <c r="I31" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="3:9">
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="10">
-        <v>2</v>
-      </c>
-      <c r="E32" s="10">
+      <c r="D32" s="9">
+        <v>2</v>
+      </c>
+      <c r="E32" s="9">
         <v>10</v>
       </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="5" t="s">
+      <c r="F32" s="10"/>
+      <c r="G32" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H32" s="10">
-        <v>1</v>
-      </c>
-      <c r="I32" s="14">
+      <c r="H32" s="9">
+        <v>1</v>
+      </c>
+      <c r="I32" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="3:9">
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="10">
-        <v>2</v>
-      </c>
-      <c r="E33" s="10">
+      <c r="D33" s="9">
+        <v>2</v>
+      </c>
+      <c r="E33" s="9">
         <v>6</v>
       </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="5" t="s">
+      <c r="F33" s="10"/>
+      <c r="G33" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H33" s="10">
-        <v>1</v>
-      </c>
-      <c r="I33" s="14">
+      <c r="H33" s="9">
+        <v>1</v>
+      </c>
+      <c r="I33" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="3:9">
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="10">
-        <v>2</v>
-      </c>
-      <c r="E34" s="10">
+      <c r="D34" s="9">
+        <v>2</v>
+      </c>
+      <c r="E34" s="9">
         <v>6</v>
       </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="5" t="s">
+      <c r="F34" s="10"/>
+      <c r="G34" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H34" s="10">
-        <v>1</v>
-      </c>
-      <c r="I34" s="14">
+      <c r="H34" s="9">
+        <v>1</v>
+      </c>
+      <c r="I34" s="11">
         <v>8</v>
       </c>
     </row>
     <row r="35" spans="3:9" ht="16" thickBot="1">
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="11">
-        <v>2</v>
-      </c>
-      <c r="E35" s="11">
-        <v>2</v>
-      </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="6" t="s">
+      <c r="D35" s="13">
+        <v>2</v>
+      </c>
+      <c r="E35" s="13">
+        <v>2</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="H35" s="11">
-        <v>1</v>
-      </c>
-      <c r="I35" s="15">
+      <c r="H35" s="13">
+        <v>1</v>
+      </c>
+      <c r="I35" s="14">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="3:9">
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
     </row>
     <row r="37" spans="3:9" ht="16" thickBot="1">
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-    </row>
-    <row r="38" spans="3:9" ht="16" thickBot="1">
-      <c r="C38" s="7" t="s">
+      <c r="C37" s="15"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+    </row>
+    <row r="38" spans="3:9" ht="19" customHeight="1" thickBot="1">
+      <c r="C38" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="4">
         <f>SUM(D39:D50)</f>
         <v>32</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E38" s="17">
         <f>SUM(E39:E50)</f>
         <v>187</v>
       </c>
-      <c r="G38" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H38" s="8">
+      <c r="F38" s="1"/>
+      <c r="G38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H38" s="4">
         <f>SUM(H39:H45)</f>
         <v>64</v>
       </c>
-      <c r="I38" s="13">
+      <c r="I38" s="17">
         <f>SUM(I39:I45)</f>
         <v>365</v>
       </c>
     </row>
     <row r="39" spans="3:9">
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="9">
         <v>5</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E39" s="11">
         <v>54</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="F39" s="1"/>
+      <c r="G39" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H39" s="10">
+      <c r="H39" s="9">
         <v>25</v>
       </c>
-      <c r="I39" s="14">
+      <c r="I39" s="11">
         <v>123</v>
       </c>
     </row>
     <row r="40" spans="3:9">
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="9">
         <v>4</v>
       </c>
-      <c r="E40" s="14">
+      <c r="E40" s="11">
         <v>17</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="F40" s="1"/>
+      <c r="G40" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="H40" s="10">
+      <c r="H40" s="9">
         <v>10</v>
       </c>
-      <c r="I40" s="14">
+      <c r="I40" s="11">
         <v>59</v>
       </c>
     </row>
     <row r="41" spans="3:9">
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="9">
         <v>4</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E41" s="11">
         <v>18</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="F41" s="1"/>
+      <c r="G41" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="H41" s="10">
+      <c r="H41" s="9">
         <v>9</v>
       </c>
-      <c r="I41" s="14">
+      <c r="I41" s="11">
         <v>26</v>
       </c>
     </row>
     <row r="42" spans="3:9">
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="9">
         <v>4</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E42" s="11">
         <v>28</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="F42" s="1"/>
+      <c r="G42" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H42" s="10">
+      <c r="H42" s="9">
         <v>7</v>
       </c>
-      <c r="I42" s="14">
+      <c r="I42" s="11">
         <v>62</v>
       </c>
     </row>
     <row r="43" spans="3:9">
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="9">
         <v>3</v>
       </c>
-      <c r="E43" s="14">
+      <c r="E43" s="11">
         <v>13</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="F43" s="1"/>
+      <c r="G43" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="H43" s="10">
+      <c r="H43" s="9">
         <v>6</v>
       </c>
-      <c r="I43" s="14">
+      <c r="I43" s="11">
         <v>48</v>
       </c>
     </row>
     <row r="44" spans="3:9">
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="9">
         <v>3</v>
       </c>
-      <c r="E44" s="14">
+      <c r="E44" s="11">
         <v>4</v>
       </c>
-      <c r="G44" s="5" t="s">
+      <c r="F44" s="1"/>
+      <c r="G44" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H44" s="10">
+      <c r="H44" s="9">
         <v>5</v>
       </c>
-      <c r="I44" s="14">
+      <c r="I44" s="11">
         <v>37</v>
       </c>
     </row>
     <row r="45" spans="3:9" ht="16" thickBot="1">
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D45" s="10">
-        <v>2</v>
-      </c>
-      <c r="E45" s="14">
+      <c r="D45" s="9">
+        <v>2</v>
+      </c>
+      <c r="E45" s="11">
         <v>10</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="F45" s="1"/>
+      <c r="G45" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H45" s="11">
-        <v>2</v>
-      </c>
-      <c r="I45" s="15">
+      <c r="H45" s="13">
+        <v>2</v>
+      </c>
+      <c r="I45" s="14">
         <v>10</v>
       </c>
     </row>
     <row r="46" spans="3:9">
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D46" s="10">
-        <v>2</v>
-      </c>
-      <c r="E46" s="14">
+      <c r="D46" s="9">
+        <v>2</v>
+      </c>
+      <c r="E46" s="11">
         <v>12</v>
       </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
     </row>
     <row r="47" spans="3:9">
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D47" s="10">
-        <v>2</v>
-      </c>
-      <c r="E47" s="14">
+      <c r="D47" s="9">
+        <v>2</v>
+      </c>
+      <c r="E47" s="11">
         <v>17</v>
       </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
     </row>
     <row r="48" spans="3:9">
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D48" s="10">
-        <v>1</v>
-      </c>
-      <c r="E48" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="3:5">
-      <c r="C49" s="5" t="s">
+      <c r="D48" s="9">
+        <v>1</v>
+      </c>
+      <c r="E48" s="11">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="3:9">
+      <c r="C49" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D49" s="10">
-        <v>1</v>
-      </c>
-      <c r="E49" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="3:5" ht="16" thickBot="1">
-      <c r="C50" s="6" t="s">
+      <c r="D49" s="9">
+        <v>1</v>
+      </c>
+      <c r="E49" s="11">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="3:9" ht="16" thickBot="1">
+      <c r="C50" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D50" s="11">
-        <v>1</v>
-      </c>
-      <c r="E50" s="15">
+      <c r="D50" s="13">
+        <v>1</v>
+      </c>
+      <c r="E50" s="14">
         <v>12</v>
+      </c>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="52" spans="3:9">
+      <c r="C52" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D52" s="19"/>
+    </row>
+    <row r="53" spans="3:9">
+      <c r="C53" s="18" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
